--- a/state_results/Rivers/WhanganuiatDownstreamIntake_536c82ad59.xlsx
+++ b/state_results/Rivers/WhanganuiatDownstreamIntake_536c82ad59.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:U78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +894,7 @@
         <v>0.00068</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0025775245862448</v>
+        <v>0.0025774334332807</v>
       </c>
       <c r="H6" t="n">
         <v>0.0202512936452229</v>
@@ -975,7 +975,7 @@
         <v>0.00068</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0025775245862448</v>
+        <v>0.0025774334332807</v>
       </c>
       <c r="H7" t="n">
         <v>0.0202512936452229</v>
@@ -1056,7 +1056,7 @@
         <v>0.005</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008944419915110099</v>
+        <v>0.008968473395169201</v>
       </c>
       <c r="H8" t="n">
         <v>0.074</v>
@@ -1067,7 +1067,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>0.00185</v>
+        <v>0.00189</v>
       </c>
       <c r="M8" t="n">
         <v>0.01451</v>
@@ -1137,7 +1137,7 @@
         <v>0.005</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008944419915110099</v>
+        <v>0.008968473395169201</v>
       </c>
       <c r="H9" t="n">
         <v>0.074</v>
@@ -1148,7 +1148,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>0.00185</v>
+        <v>0.00189</v>
       </c>
       <c r="M9" t="n">
         <v>0.01451</v>
@@ -1214,24 +1214,24 @@
         <v>0.012</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0163976842297871</v>
+        <v>0.0164255297843871</v>
       </c>
       <c r="H10" t="n">
         <v>0.09</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0375</v>
+        <v>0.0373</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.01</v>
+        <v>0.0101</v>
       </c>
       <c r="M10" t="n">
-        <v>0.024</v>
+        <v>0.02403</v>
       </c>
       <c r="N10" t="n">
-        <v>0.031</v>
+        <v>0.03107</v>
       </c>
       <c r="O10" t="n">
         <v>1825125.6</v>
@@ -1291,24 +1291,24 @@
         <v>0.012</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0163976842297871</v>
+        <v>0.0164255297843871</v>
       </c>
       <c r="H11" t="n">
         <v>0.09</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0375</v>
+        <v>0.0373</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.01</v>
+        <v>0.0101</v>
       </c>
       <c r="M11" t="n">
-        <v>0.024</v>
+        <v>0.02403</v>
       </c>
       <c r="N11" t="n">
-        <v>0.031</v>
+        <v>0.03107</v>
       </c>
       <c r="O11" t="n">
         <v>1825125.6</v>
@@ -1615,7 +1615,7 @@
         <v>0.00077</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0026930886728848</v>
+        <v>0.0026924105925782</v>
       </c>
       <c r="H15" t="n">
         <v>0.0352393149189957</v>
@@ -1629,7 +1629,7 @@
         <v>0.00088</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00234</v>
+        <v>0.00233</v>
       </c>
       <c r="N15" t="n">
         <v>0.00765</v>
@@ -1696,7 +1696,7 @@
         <v>0.00077</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0026930886728848</v>
+        <v>0.0026924105925782</v>
       </c>
       <c r="H16" t="n">
         <v>0.0352393149189957</v>
@@ -1710,7 +1710,7 @@
         <v>0.00088</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00234</v>
+        <v>0.00233</v>
       </c>
       <c r="N16" t="n">
         <v>0.00765</v>
@@ -1777,7 +1777,7 @@
         <v>0.0051</v>
       </c>
       <c r="G17" t="n">
-        <v>0.009322810840292401</v>
+        <v>0.009345447266363801</v>
       </c>
       <c r="H17" t="n">
         <v>0.074</v>
@@ -1858,7 +1858,7 @@
         <v>0.0051</v>
       </c>
       <c r="G18" t="n">
-        <v>0.009322810840292401</v>
+        <v>0.009345447266363801</v>
       </c>
       <c r="H18" t="n">
         <v>0.074</v>
@@ -1935,13 +1935,13 @@
         <v>0.012</v>
       </c>
       <c r="G19" t="n">
-        <v>0.017623116514518</v>
+        <v>0.0176438829819853</v>
       </c>
       <c r="H19" t="n">
         <v>0.09</v>
       </c>
       <c r="I19" t="n">
-        <v>0.048</v>
+        <v>0.04785</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1952,7 +1952,7 @@
         <v>0.0283</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0376</v>
+        <v>0.03757</v>
       </c>
       <c r="O19" t="n">
         <v>1825125.6</v>
@@ -2012,13 +2012,13 @@
         <v>0.012</v>
       </c>
       <c r="G20" t="n">
-        <v>0.017623116514518</v>
+        <v>0.0176438829819853</v>
       </c>
       <c r="H20" t="n">
         <v>0.09</v>
       </c>
       <c r="I20" t="n">
-        <v>0.048</v>
+        <v>0.04785</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2029,7 +2029,7 @@
         <v>0.0283</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0376</v>
+        <v>0.03757</v>
       </c>
       <c r="O20" t="n">
         <v>1825125.6</v>
@@ -2336,7 +2336,7 @@
         <v>0.00101</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0029883674408479</v>
+        <v>0.0029878075580572</v>
       </c>
       <c r="H24" t="n">
         <v>0.0352393149189957</v>
@@ -2350,7 +2350,7 @@
         <v>0.00108</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0037</v>
+        <v>0.00369</v>
       </c>
       <c r="N24" t="n">
         <v>0.00734</v>
@@ -2417,7 +2417,7 @@
         <v>0.00101</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0029883674408479</v>
+        <v>0.0029878075580572</v>
       </c>
       <c r="H25" t="n">
         <v>0.0352393149189957</v>
@@ -2431,7 +2431,7 @@
         <v>0.00108</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0037</v>
+        <v>0.00369</v>
       </c>
       <c r="N25" t="n">
         <v>0.00734</v>
@@ -2498,7 +2498,7 @@
         <v>0.0065</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0099444775069591</v>
+        <v>0.009967113933030399</v>
       </c>
       <c r="H26" t="n">
         <v>0.041</v>
@@ -2579,7 +2579,7 @@
         <v>0.0065</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0099444775069591</v>
+        <v>0.009967113933030399</v>
       </c>
       <c r="H27" t="n">
         <v>0.041</v>
@@ -2653,16 +2653,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.01224</v>
+        <v>0.01216</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0181564498478513</v>
+        <v>0.0181538829819853</v>
       </c>
       <c r="H28" t="n">
         <v>0.06900000000000001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.045</v>
+        <v>0.04485</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -2730,16 +2730,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.01224</v>
+        <v>0.01216</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0181564498478513</v>
+        <v>0.0181538829819853</v>
       </c>
       <c r="H29" t="n">
         <v>0.06900000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>0.045</v>
+        <v>0.04485</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3054,10 +3054,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.00137</v>
+        <v>0.00136</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0032690471841243</v>
+        <v>0.0032787084902805</v>
       </c>
       <c r="H33" t="n">
         <v>0.0352393149189957</v>
@@ -3071,10 +3071,10 @@
         <v>0.00132</v>
       </c>
       <c r="M33" t="n">
-        <v>0.00448</v>
+        <v>0.0045</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0059</v>
+        <v>0.00591</v>
       </c>
       <c r="O33" t="n">
         <v>1825125.6</v>
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.00137</v>
+        <v>0.00136</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0032690471841243</v>
+        <v>0.0032787084902805</v>
       </c>
       <c r="H34" t="n">
         <v>0.0352393149189957</v>
@@ -3152,10 +3152,10 @@
         <v>0.00132</v>
       </c>
       <c r="M34" t="n">
-        <v>0.00448</v>
+        <v>0.0045</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0059</v>
+        <v>0.00591</v>
       </c>
       <c r="O34" t="n">
         <v>1825125.6</v>
@@ -3216,10 +3216,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.0051</v>
+        <v>0.00523</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0102261256085532</v>
+        <v>0.0102571133709188</v>
       </c>
       <c r="H35" t="n">
         <v>0.041</v>
@@ -3297,10 +3297,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0051</v>
+        <v>0.00523</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0102261256085532</v>
+        <v>0.0102571133709188</v>
       </c>
       <c r="H36" t="n">
         <v>0.041</v>
@@ -3374,10 +3374,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.01224</v>
+        <v>0.01216</v>
       </c>
       <c r="G37" t="n">
-        <v>0.018839735809253</v>
+        <v>0.018837268376024</v>
       </c>
       <c r="H37" t="n">
         <v>0.06900000000000001</v>
@@ -3394,7 +3394,7 @@
         <v>0.0325</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0421</v>
+        <v>0.04189</v>
       </c>
       <c r="O37" t="n">
         <v>1825125.6</v>
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.01224</v>
+        <v>0.01216</v>
       </c>
       <c r="G38" t="n">
-        <v>0.018839735809253</v>
+        <v>0.018837268376024</v>
       </c>
       <c r="H38" t="n">
         <v>0.06900000000000001</v>
@@ -3471,7 +3471,7 @@
         <v>0.0325</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0421</v>
+        <v>0.04189</v>
       </c>
       <c r="O38" t="n">
         <v>1825125.6</v>
@@ -3775,10 +3775,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.0016</v>
+        <v>0.00159</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0033189761312288</v>
+        <v>0.0033286377024709</v>
       </c>
       <c r="H42" t="n">
         <v>0.0352393149189957</v>
@@ -3792,10 +3792,10 @@
         <v>0.00187</v>
       </c>
       <c r="M42" t="n">
-        <v>0.00423</v>
+        <v>0.00428</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0057</v>
+        <v>0.0058</v>
       </c>
       <c r="O42" t="n">
         <v>1825125.6</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.0016</v>
+        <v>0.00159</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0033189761312288</v>
+        <v>0.0033286377024709</v>
       </c>
       <c r="H43" t="n">
         <v>0.0352393149189957</v>
@@ -3873,10 +3873,10 @@
         <v>0.00187</v>
       </c>
       <c r="M43" t="n">
-        <v>0.00423</v>
+        <v>0.00428</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0057</v>
+        <v>0.0058</v>
       </c>
       <c r="O43" t="n">
         <v>1825125.6</v>
@@ -3940,7 +3940,7 @@
         <v>0.006</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0118845012506243</v>
+        <v>0.011912003396787</v>
       </c>
       <c r="H44" t="n">
         <v>0.056</v>
@@ -4021,7 +4021,7 @@
         <v>0.006</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0118845012506243</v>
+        <v>0.011912003396787</v>
       </c>
       <c r="H45" t="n">
         <v>0.056</v>
@@ -4095,10 +4095,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.0136</v>
+        <v>0.01337</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0197394681609059</v>
+        <v>0.0197390594932584</v>
       </c>
       <c r="H46" t="n">
         <v>0.06900000000000001</v>
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.0136</v>
+        <v>0.01337</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0197394681609059</v>
+        <v>0.0197390594932584</v>
       </c>
       <c r="H47" t="n">
         <v>0.06900000000000001</v>
@@ -4499,13 +4499,13 @@
         <v>0.00232</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0035753969521789</v>
+        <v>0.0035844745601803</v>
       </c>
       <c r="H51" t="n">
         <v>0.0352393149189957</v>
       </c>
       <c r="I51" t="n">
-        <v>0.00708</v>
+        <v>0.00709</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -4513,10 +4513,10 @@
         <v>0.00212</v>
       </c>
       <c r="M51" t="n">
-        <v>0.00417</v>
+        <v>0.00423</v>
       </c>
       <c r="N51" t="n">
-        <v>0.00564</v>
+        <v>0.00572</v>
       </c>
       <c r="O51" t="n">
         <v>1825125.6</v>
@@ -4580,13 +4580,13 @@
         <v>0.00232</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0035753969521789</v>
+        <v>0.0035844745601803</v>
       </c>
       <c r="H52" t="n">
         <v>0.0352393149189957</v>
       </c>
       <c r="I52" t="n">
-        <v>0.00708</v>
+        <v>0.00709</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -4594,10 +4594,10 @@
         <v>0.00212</v>
       </c>
       <c r="M52" t="n">
-        <v>0.00417</v>
+        <v>0.00423</v>
       </c>
       <c r="N52" t="n">
-        <v>0.00564</v>
+        <v>0.00572</v>
       </c>
       <c r="O52" t="n">
         <v>1825125.6</v>
@@ -4661,7 +4661,7 @@
         <v>0.0115</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0136199070413328</v>
+        <v>0.0136375620692084</v>
       </c>
       <c r="H53" t="n">
         <v>0.056</v>
@@ -4742,7 +4742,7 @@
         <v>0.0115</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0136199070413328</v>
+        <v>0.0136375620692084</v>
       </c>
       <c r="H54" t="n">
         <v>0.056</v>
@@ -4816,10 +4816,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.016</v>
+        <v>0.01625</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0208605467775846</v>
+        <v>0.0208801478630326</v>
       </c>
       <c r="H55" t="n">
         <v>0.06900000000000001</v>
@@ -4893,10 +4893,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.016</v>
+        <v>0.01625</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0208605467775846</v>
+        <v>0.0208801478630326</v>
       </c>
       <c r="H56" t="n">
         <v>0.06900000000000001</v>
@@ -5220,24 +5220,24 @@
         <v>0.00274</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0027560966095547</v>
+        <v>0.0027661803945041</v>
       </c>
       <c r="H60" t="n">
         <v>0.0059852671384307</v>
       </c>
       <c r="I60" t="n">
-        <v>0.00569</v>
+        <v>0.00579</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
-        <v>0.00278</v>
+        <v>0.00281</v>
       </c>
       <c r="M60" t="n">
-        <v>0.00429</v>
+        <v>0.00434</v>
       </c>
       <c r="N60" t="n">
-        <v>0.00559</v>
+        <v>0.00565</v>
       </c>
       <c r="O60" t="n">
         <v>1825125.6</v>
@@ -5301,24 +5301,24 @@
         <v>0.00274</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0027560966095547</v>
+        <v>0.0027661803945041</v>
       </c>
       <c r="H61" t="n">
         <v>0.0059852671384307</v>
       </c>
       <c r="I61" t="n">
-        <v>0.00569</v>
+        <v>0.00579</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>0.00278</v>
+        <v>0.00281</v>
       </c>
       <c r="M61" t="n">
-        <v>0.00429</v>
+        <v>0.00434</v>
       </c>
       <c r="N61" t="n">
-        <v>0.00559</v>
+        <v>0.00565</v>
       </c>
       <c r="O61" t="n">
         <v>1825125.6</v>
@@ -5382,7 +5382,7 @@
         <v>0.011</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0137255076389888</v>
+        <v>0.0137416436399872</v>
       </c>
       <c r="H62" t="n">
         <v>0.056</v>
@@ -5463,7 +5463,7 @@
         <v>0.011</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0137255076389888</v>
+        <v>0.0137416436399872</v>
       </c>
       <c r="H63" t="n">
         <v>0.056</v>
@@ -5537,10 +5537,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.016</v>
+        <v>0.01625</v>
       </c>
       <c r="G64" t="n">
-        <v>0.019403791493925</v>
+        <v>0.0194269831469677</v>
       </c>
       <c r="H64" t="n">
         <v>0.059</v>
@@ -5554,7 +5554,7 @@
         <v>0.0105</v>
       </c>
       <c r="M64" t="n">
-        <v>0.03362</v>
+        <v>0.03345</v>
       </c>
       <c r="N64" t="n">
         <v>0.04002</v>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.016</v>
+        <v>0.01625</v>
       </c>
       <c r="G65" t="n">
-        <v>0.019403791493925</v>
+        <v>0.0194269831469677</v>
       </c>
       <c r="H65" t="n">
         <v>0.059</v>
@@ -5631,7 +5631,7 @@
         <v>0.0105</v>
       </c>
       <c r="M65" t="n">
-        <v>0.03362</v>
+        <v>0.03345</v>
       </c>
       <c r="N65" t="n">
         <v>0.04002</v>
@@ -5663,6 +5663,1035 @@
         </is>
       </c>
       <c r="U65" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.82592592592593</v>
+      </c>
+      <c r="H66" t="n">
+        <v>37</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="M66" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="N66" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0288653846153846</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.03732</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.04034</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.0288653846153846</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.03732</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.04034</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.00257</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.0024603849398505</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0059852671384307</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.00566</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>0.00226</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.00394</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.00535</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.00257</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0024603849398505</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0059852671384307</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.00566</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>0.00226</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.00394</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.00535</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0139724128707565</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0369</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.02462</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.03336</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0139724128707565</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0369</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.02462</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.03336</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.01625</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0192058293008138</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.02799</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.04068</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.01625</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0192058293008138</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.02799</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.04068</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0447038470831317</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0447038470831317</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0352</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.0585</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.0457</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Whanganui at Downstream Intake</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0352</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.0585</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>0.0355</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.0457</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0535</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1825125.6</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Upper Whanganui</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Whai_1</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
         <is>
           <t>g/m3</t>
         </is>

--- a/state_results/Rivers/WhanganuiatDownstreamIntake_536c82ad59.xlsx
+++ b/state_results/Rivers/WhanganuiatDownstreamIntake_536c82ad59.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="58">
   <si>
     <t>site name</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U78"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,7 +630,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>2.875</v>
@@ -642,7 +645,7 @@
         <v>22.5</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>2.225</v>
       </c>
       <c r="M2">
         <v>8.5</v>
@@ -657,19 +660,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -686,7 +689,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>2.7</v>
@@ -701,7 +704,7 @@
         <v>19.275</v>
       </c>
       <c r="L3">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="M3">
         <v>8.5</v>
@@ -716,19 +719,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -745,7 +748,7 @@
         <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>0.031</v>
@@ -760,7 +763,7 @@
         <v>0.047</v>
       </c>
       <c r="L4">
-        <v>0.0355</v>
+        <v>0.0345</v>
       </c>
       <c r="M4">
         <v>0.0383</v>
@@ -775,19 +778,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -804,7 +807,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>0.031</v>
@@ -819,7 +822,7 @@
         <v>0.047</v>
       </c>
       <c r="L5">
-        <v>0.0355</v>
+        <v>0.0345</v>
       </c>
       <c r="M5">
         <v>0.0383</v>
@@ -834,19 +837,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -863,13 +866,13 @@
         <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>0.00068</v>
       </c>
       <c r="G6">
-        <v>0.0025774334332807</v>
+        <v>0.0025886374406404</v>
       </c>
       <c r="H6">
         <v>0.0202512936452229</v>
@@ -878,7 +881,7 @@
         <v>0.01367</v>
       </c>
       <c r="L6">
-        <v>0.00059</v>
+        <v>0.00063</v>
       </c>
       <c r="M6">
         <v>0.00438</v>
@@ -893,19 +896,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -922,13 +925,13 @@
         <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>0.00068</v>
       </c>
       <c r="G7">
-        <v>0.0025774334332807</v>
+        <v>0.0025886374406404</v>
       </c>
       <c r="H7">
         <v>0.0202512936452229</v>
@@ -937,7 +940,7 @@
         <v>0.01367</v>
       </c>
       <c r="L7">
-        <v>0.00059</v>
+        <v>0.00063</v>
       </c>
       <c r="M7">
         <v>0.00438</v>
@@ -952,19 +955,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -981,13 +984,13 @@
         <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>0.005</v>
       </c>
       <c r="G8">
-        <v>0.008968473395169201</v>
+        <v>0.008914175402436201</v>
       </c>
       <c r="H8">
         <v>0.074</v>
@@ -996,7 +999,7 @@
         <v>0.024</v>
       </c>
       <c r="L8">
-        <v>0.00189</v>
+        <v>0.00169</v>
       </c>
       <c r="M8">
         <v>0.01451</v>
@@ -1011,19 +1014,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1040,13 +1043,13 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0.005</v>
       </c>
       <c r="G9">
-        <v>0.008968473395169201</v>
+        <v>0.008914175402436201</v>
       </c>
       <c r="H9">
         <v>0.074</v>
@@ -1055,7 +1058,7 @@
         <v>0.024</v>
       </c>
       <c r="L9">
-        <v>0.00189</v>
+        <v>0.00169</v>
       </c>
       <c r="M9">
         <v>0.01451</v>
@@ -1070,19 +1073,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1096,13 +1099,13 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10">
-        <v>0.012</v>
+        <v>0.0113</v>
       </c>
       <c r="G10">
-        <v>0.0164255297843871</v>
+        <v>0.0155504452067902</v>
       </c>
       <c r="H10">
         <v>0.09</v>
@@ -1111,7 +1114,7 @@
         <v>0.0373</v>
       </c>
       <c r="L10">
-        <v>0.0101</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M10">
         <v>0.02403</v>
@@ -1126,19 +1129,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1152,13 +1155,13 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11">
-        <v>0.012</v>
+        <v>0.0113</v>
       </c>
       <c r="G11">
-        <v>0.0164255297843871</v>
+        <v>0.0155504452067902</v>
       </c>
       <c r="H11">
         <v>0.09</v>
@@ -1167,7 +1170,7 @@
         <v>0.0373</v>
       </c>
       <c r="L11">
-        <v>0.0101</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M11">
         <v>0.02403</v>
@@ -1182,19 +1185,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1211,7 +1214,7 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>2.95</v>
@@ -1226,7 +1229,7 @@
         <v>18.925</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="M12">
         <v>8.5</v>
@@ -1241,19 +1244,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1270,7 +1273,7 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>0.032</v>
@@ -1285,7 +1288,7 @@
         <v>0.047</v>
       </c>
       <c r="L13">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="M13">
         <v>0.0393</v>
@@ -1300,19 +1303,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1329,7 +1332,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>0.032</v>
@@ -1344,7 +1347,7 @@
         <v>0.047</v>
       </c>
       <c r="L14">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="M14">
         <v>0.0393</v>
@@ -1359,19 +1362,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1388,13 +1391,13 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>0.00077</v>
       </c>
       <c r="G15">
-        <v>0.0026924105925782</v>
+        <v>0.0027200499956546</v>
       </c>
       <c r="H15">
         <v>0.0352393149189957</v>
@@ -1403,10 +1406,10 @@
         <v>0.01225</v>
       </c>
       <c r="L15">
-        <v>0.00088</v>
+        <v>0.0008</v>
       </c>
       <c r="M15">
-        <v>0.00233</v>
+        <v>0.0025</v>
       </c>
       <c r="N15">
         <v>0.00765</v>
@@ -1418,19 +1421,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1447,13 +1450,13 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>0.00077</v>
       </c>
       <c r="G16">
-        <v>0.0026924105925782</v>
+        <v>0.0027200499956546</v>
       </c>
       <c r="H16">
         <v>0.0352393149189957</v>
@@ -1462,10 +1465,10 @@
         <v>0.01225</v>
       </c>
       <c r="L16">
-        <v>0.00088</v>
+        <v>0.0008</v>
       </c>
       <c r="M16">
-        <v>0.00233</v>
+        <v>0.0025</v>
       </c>
       <c r="N16">
         <v>0.00765</v>
@@ -1477,19 +1480,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1506,13 +1509,13 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>0.0051</v>
       </c>
       <c r="G17">
-        <v>0.009345447266363801</v>
+        <v>0.009293077882315801</v>
       </c>
       <c r="H17">
         <v>0.074</v>
@@ -1521,7 +1524,7 @@
         <v>0.0245</v>
       </c>
       <c r="L17">
-        <v>0.002</v>
+        <v>0.00194</v>
       </c>
       <c r="M17">
         <v>0.01688</v>
@@ -1536,19 +1539,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1565,13 +1568,13 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>0.0051</v>
       </c>
       <c r="G18">
-        <v>0.009345447266363801</v>
+        <v>0.009293077882315801</v>
       </c>
       <c r="H18">
         <v>0.074</v>
@@ -1580,7 +1583,7 @@
         <v>0.0245</v>
       </c>
       <c r="L18">
-        <v>0.002</v>
+        <v>0.00194</v>
       </c>
       <c r="M18">
         <v>0.01688</v>
@@ -1595,19 +1598,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1621,13 +1624,13 @@
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19">
-        <v>0.012</v>
+        <v>0.01143</v>
       </c>
       <c r="G19">
-        <v>0.0176438829819853</v>
+        <v>0.0167839561153497</v>
       </c>
       <c r="H19">
         <v>0.09</v>
@@ -1636,7 +1639,7 @@
         <v>0.04785</v>
       </c>
       <c r="L19">
-        <v>0.0115</v>
+        <v>0.009549999999999999</v>
       </c>
       <c r="M19">
         <v>0.0283</v>
@@ -1651,19 +1654,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1677,13 +1680,13 @@
         <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20">
-        <v>0.012</v>
+        <v>0.01143</v>
       </c>
       <c r="G20">
-        <v>0.0176438829819853</v>
+        <v>0.0167839561153497</v>
       </c>
       <c r="H20">
         <v>0.09</v>
@@ -1692,7 +1695,7 @@
         <v>0.04785</v>
       </c>
       <c r="L20">
-        <v>0.0115</v>
+        <v>0.009549999999999999</v>
       </c>
       <c r="M20">
         <v>0.0283</v>
@@ -1707,19 +1710,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1736,7 +1739,7 @@
         <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>2.8</v>
@@ -1751,7 +1754,7 @@
         <v>18.925</v>
       </c>
       <c r="L21">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M21">
         <v>8.734999999999999</v>
@@ -1766,19 +1769,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1795,7 +1798,7 @@
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>0.032</v>
@@ -1810,7 +1813,7 @@
         <v>0.045</v>
       </c>
       <c r="L22">
-        <v>0.036</v>
+        <v>0.0345</v>
       </c>
       <c r="M22">
         <v>0.0383</v>
@@ -1825,19 +1828,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1854,7 +1857,7 @@
         <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>0.032</v>
@@ -1869,7 +1872,7 @@
         <v>0.045</v>
       </c>
       <c r="L23">
-        <v>0.036</v>
+        <v>0.0345</v>
       </c>
       <c r="M23">
         <v>0.0383</v>
@@ -1884,19 +1887,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1913,13 +1916,13 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24">
-        <v>0.00101</v>
+        <v>0.00104</v>
       </c>
       <c r="G24">
-        <v>0.0029878075580572</v>
+        <v>0.0030565647262114</v>
       </c>
       <c r="H24">
         <v>0.0352393149189957</v>
@@ -1928,10 +1931,10 @@
         <v>0.01214</v>
       </c>
       <c r="L24">
-        <v>0.00108</v>
+        <v>0.00114</v>
       </c>
       <c r="M24">
-        <v>0.00369</v>
+        <v>0.00385</v>
       </c>
       <c r="N24">
         <v>0.00734</v>
@@ -1943,19 +1946,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1972,13 +1975,13 @@
         <v>41</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25">
-        <v>0.00101</v>
+        <v>0.00104</v>
       </c>
       <c r="G25">
-        <v>0.0029878075580572</v>
+        <v>0.0030565647262114</v>
       </c>
       <c r="H25">
         <v>0.0352393149189957</v>
@@ -1987,10 +1990,10 @@
         <v>0.01214</v>
       </c>
       <c r="L25">
-        <v>0.00108</v>
+        <v>0.00114</v>
       </c>
       <c r="M25">
-        <v>0.00369</v>
+        <v>0.00385</v>
       </c>
       <c r="N25">
         <v>0.00734</v>
@@ -2002,19 +2005,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2031,13 +2034,13 @@
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <v>0.0065</v>
       </c>
       <c r="G26">
-        <v>0.009967113933030399</v>
+        <v>0.0099480778823158</v>
       </c>
       <c r="H26">
         <v>0.041</v>
@@ -2061,19 +2064,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2090,13 +2093,13 @@
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>0.0065</v>
       </c>
       <c r="G27">
-        <v>0.009967113933030399</v>
+        <v>0.0099480778823158</v>
       </c>
       <c r="H27">
         <v>0.041</v>
@@ -2120,19 +2123,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2146,13 +2149,13 @@
         <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28">
-        <v>0.01216</v>
+        <v>0.012</v>
       </c>
       <c r="G28">
-        <v>0.0181538829819853</v>
+        <v>0.017627289448683</v>
       </c>
       <c r="H28">
         <v>0.06900000000000001</v>
@@ -2161,7 +2164,7 @@
         <v>0.04485</v>
       </c>
       <c r="L28">
-        <v>0.0115</v>
+        <v>0.01025</v>
       </c>
       <c r="M28">
         <v>0.0296</v>
@@ -2176,19 +2179,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2202,13 +2205,13 @@
         <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29">
-        <v>0.01216</v>
+        <v>0.012</v>
       </c>
       <c r="G29">
-        <v>0.0181538829819853</v>
+        <v>0.017627289448683</v>
       </c>
       <c r="H29">
         <v>0.06900000000000001</v>
@@ -2217,7 +2220,7 @@
         <v>0.04485</v>
       </c>
       <c r="L29">
-        <v>0.0115</v>
+        <v>0.01025</v>
       </c>
       <c r="M29">
         <v>0.0296</v>
@@ -2232,19 +2235,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2261,7 +2264,7 @@
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -2276,7 +2279,7 @@
         <v>16.25</v>
       </c>
       <c r="L30">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="M30">
         <v>8</v>
@@ -2291,19 +2294,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2320,7 +2323,7 @@
         <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <v>0.032</v>
@@ -2335,7 +2338,7 @@
         <v>0.043</v>
       </c>
       <c r="L31">
-        <v>0.0365</v>
+        <v>0.035</v>
       </c>
       <c r="M31">
         <v>0.038</v>
@@ -2350,19 +2353,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2379,7 +2382,7 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32">
         <v>0.032</v>
@@ -2394,7 +2397,7 @@
         <v>0.043</v>
       </c>
       <c r="L32">
-        <v>0.0365</v>
+        <v>0.035</v>
       </c>
       <c r="M32">
         <v>0.038</v>
@@ -2409,19 +2412,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2438,13 +2441,13 @@
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33">
-        <v>0.00136</v>
+        <v>0.00147</v>
       </c>
       <c r="G33">
-        <v>0.0032787084902805</v>
+        <v>0.0034046338701122</v>
       </c>
       <c r="H33">
         <v>0.0352393149189957</v>
@@ -2453,13 +2456,13 @@
         <v>0.01049</v>
       </c>
       <c r="L33">
-        <v>0.00132</v>
+        <v>0.00145</v>
       </c>
       <c r="M33">
-        <v>0.0045</v>
+        <v>0.0048</v>
       </c>
       <c r="N33">
-        <v>0.00591</v>
+        <v>0.0064</v>
       </c>
       <c r="O33">
         <v>1825125.6</v>
@@ -2468,19 +2471,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2497,13 +2500,13 @@
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34">
-        <v>0.00136</v>
+        <v>0.00147</v>
       </c>
       <c r="G34">
-        <v>0.0032787084902805</v>
+        <v>0.0034046338701122</v>
       </c>
       <c r="H34">
         <v>0.0352393149189957</v>
@@ -2512,13 +2515,13 @@
         <v>0.01049</v>
       </c>
       <c r="L34">
-        <v>0.00132</v>
+        <v>0.00145</v>
       </c>
       <c r="M34">
-        <v>0.0045</v>
+        <v>0.0048</v>
       </c>
       <c r="N34">
-        <v>0.00591</v>
+        <v>0.0064</v>
       </c>
       <c r="O34">
         <v>1825125.6</v>
@@ -2527,19 +2530,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2556,13 +2559,13 @@
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F35">
-        <v>0.00523</v>
+        <v>0.00528</v>
       </c>
       <c r="G35">
-        <v>0.0102571133709188</v>
+        <v>0.0102773369148032</v>
       </c>
       <c r="H35">
         <v>0.041</v>
@@ -2586,19 +2589,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2615,13 +2618,13 @@
         <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F36">
-        <v>0.00523</v>
+        <v>0.00528</v>
       </c>
       <c r="G36">
-        <v>0.0102571133709188</v>
+        <v>0.0102773369148032</v>
       </c>
       <c r="H36">
         <v>0.041</v>
@@ -2645,19 +2648,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2671,13 +2674,13 @@
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37">
-        <v>0.01216</v>
+        <v>0.012</v>
       </c>
       <c r="G37">
-        <v>0.018837268376024</v>
+        <v>0.0184389325621204</v>
       </c>
       <c r="H37">
         <v>0.06900000000000001</v>
@@ -2686,7 +2689,7 @@
         <v>0.045</v>
       </c>
       <c r="L37">
-        <v>0.0115</v>
+        <v>0.01103</v>
       </c>
       <c r="M37">
         <v>0.0325</v>
@@ -2701,19 +2704,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2727,13 +2730,13 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38">
-        <v>0.01216</v>
+        <v>0.012</v>
       </c>
       <c r="G38">
-        <v>0.018837268376024</v>
+        <v>0.0184389325621204</v>
       </c>
       <c r="H38">
         <v>0.06900000000000001</v>
@@ -2742,7 +2745,7 @@
         <v>0.045</v>
       </c>
       <c r="L38">
-        <v>0.0115</v>
+        <v>0.01103</v>
       </c>
       <c r="M38">
         <v>0.0325</v>
@@ -2757,19 +2760,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2786,7 +2789,7 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F39">
         <v>4.1</v>
@@ -2801,7 +2804,7 @@
         <v>17</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39">
         <v>9</v>
@@ -2816,19 +2819,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2845,7 +2848,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40">
         <v>0.031</v>
@@ -2860,7 +2863,7 @@
         <v>0.04055</v>
       </c>
       <c r="L40">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="M40">
         <v>0.03647</v>
@@ -2875,19 +2878,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2904,7 +2907,7 @@
         <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41">
         <v>0.031</v>
@@ -2919,7 +2922,7 @@
         <v>0.04055</v>
       </c>
       <c r="L41">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="M41">
         <v>0.03647</v>
@@ -2934,19 +2937,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2963,28 +2966,28 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F42">
-        <v>0.00159</v>
+        <v>0.00172</v>
       </c>
       <c r="G42">
-        <v>0.0033286377024709</v>
+        <v>0.0034598598255759</v>
       </c>
       <c r="H42">
         <v>0.0352393149189957</v>
       </c>
       <c r="I42">
-        <v>0.0065</v>
+        <v>0.0066</v>
       </c>
       <c r="L42">
         <v>0.00187</v>
       </c>
       <c r="M42">
-        <v>0.00428</v>
+        <v>0.00462</v>
       </c>
       <c r="N42">
-        <v>0.0058</v>
+        <v>0.00623</v>
       </c>
       <c r="O42">
         <v>1825125.6</v>
@@ -2993,19 +2996,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3022,28 +3025,28 @@
         <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43">
-        <v>0.00159</v>
+        <v>0.00172</v>
       </c>
       <c r="G43">
-        <v>0.0033286377024709</v>
+        <v>0.0034598598255759</v>
       </c>
       <c r="H43">
         <v>0.0352393149189957</v>
       </c>
       <c r="I43">
-        <v>0.0065</v>
+        <v>0.0066</v>
       </c>
       <c r="L43">
         <v>0.00187</v>
       </c>
       <c r="M43">
-        <v>0.00428</v>
+        <v>0.00462</v>
       </c>
       <c r="N43">
-        <v>0.0058</v>
+        <v>0.00623</v>
       </c>
       <c r="O43">
         <v>1825125.6</v>
@@ -3052,19 +3055,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3081,13 +3084,13 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44">
         <v>0.006</v>
       </c>
       <c r="G44">
-        <v>0.011912003396787</v>
+        <v>0.0119538158826853</v>
       </c>
       <c r="H44">
         <v>0.056</v>
@@ -3111,19 +3114,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3140,13 +3143,13 @@
         <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45">
         <v>0.006</v>
       </c>
       <c r="G45">
-        <v>0.011912003396787</v>
+        <v>0.0119538158826853</v>
       </c>
       <c r="H45">
         <v>0.056</v>
@@ -3170,19 +3173,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3196,13 +3199,13 @@
         <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46">
-        <v>0.01337</v>
+        <v>0.013</v>
       </c>
       <c r="G46">
-        <v>0.0197390594932584</v>
+        <v>0.0193829126649274</v>
       </c>
       <c r="H46">
         <v>0.06900000000000001</v>
@@ -3211,7 +3214,7 @@
         <v>0.0503</v>
       </c>
       <c r="L46">
-        <v>0.0105</v>
+        <v>0.01105</v>
       </c>
       <c r="M46">
         <v>0.03335</v>
@@ -3226,19 +3229,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3252,13 +3255,13 @@
         <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47">
-        <v>0.01337</v>
+        <v>0.013</v>
       </c>
       <c r="G47">
-        <v>0.0197390594932584</v>
+        <v>0.0193829126649274</v>
       </c>
       <c r="H47">
         <v>0.06900000000000001</v>
@@ -3267,7 +3270,7 @@
         <v>0.0503</v>
       </c>
       <c r="L47">
-        <v>0.0105</v>
+        <v>0.01105</v>
       </c>
       <c r="M47">
         <v>0.03335</v>
@@ -3282,19 +3285,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3311,7 +3314,7 @@
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48">
         <v>4.75</v>
@@ -3326,7 +3329,7 @@
         <v>16.775</v>
       </c>
       <c r="L48">
-        <v>3.225</v>
+        <v>3</v>
       </c>
       <c r="M48">
         <v>9.5</v>
@@ -3341,19 +3344,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3370,19 +3373,19 @@
         <v>44</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F49">
-        <v>0.0295</v>
+        <v>0.03</v>
       </c>
       <c r="G49">
-        <v>0.0283888888888889</v>
+        <v>0.0292033898305085</v>
       </c>
       <c r="H49">
-        <v>0.044</v>
+        <v>0.068</v>
       </c>
       <c r="I49">
-        <v>0.04</v>
+        <v>0.04055</v>
       </c>
       <c r="L49">
         <v>0.031</v>
@@ -3391,7 +3394,7 @@
         <v>0.036</v>
       </c>
       <c r="N49">
-        <v>0.03836</v>
+        <v>0.03956</v>
       </c>
       <c r="O49">
         <v>1825125.6</v>
@@ -3400,19 +3403,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3429,19 +3432,19 @@
         <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F50">
-        <v>0.0295</v>
+        <v>0.03</v>
       </c>
       <c r="G50">
-        <v>0.0283888888888889</v>
+        <v>0.0292033898305085</v>
       </c>
       <c r="H50">
-        <v>0.044</v>
+        <v>0.068</v>
       </c>
       <c r="I50">
-        <v>0.04</v>
+        <v>0.04055</v>
       </c>
       <c r="L50">
         <v>0.031</v>
@@ -3450,7 +3453,7 @@
         <v>0.036</v>
       </c>
       <c r="N50">
-        <v>0.03836</v>
+        <v>0.03956</v>
       </c>
       <c r="O50">
         <v>1825125.6</v>
@@ -3459,19 +3462,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3488,28 +3491,28 @@
         <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F51">
-        <v>0.00232</v>
+        <v>0.00254</v>
       </c>
       <c r="G51">
-        <v>0.0035844745601803</v>
+        <v>0.0036108169717533</v>
       </c>
       <c r="H51">
         <v>0.0352393149189957</v>
       </c>
       <c r="I51">
-        <v>0.00709</v>
+        <v>0.00637</v>
       </c>
       <c r="L51">
-        <v>0.00212</v>
+        <v>0.00275</v>
       </c>
       <c r="M51">
-        <v>0.00423</v>
+        <v>0.00453</v>
       </c>
       <c r="N51">
-        <v>0.00572</v>
+        <v>0.00611</v>
       </c>
       <c r="O51">
         <v>1825125.6</v>
@@ -3518,19 +3521,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3547,28 +3550,28 @@
         <v>44</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52">
-        <v>0.00232</v>
+        <v>0.00254</v>
       </c>
       <c r="G52">
-        <v>0.0035844745601803</v>
+        <v>0.0036108169717533</v>
       </c>
       <c r="H52">
         <v>0.0352393149189957</v>
       </c>
       <c r="I52">
-        <v>0.00709</v>
+        <v>0.00637</v>
       </c>
       <c r="L52">
-        <v>0.00212</v>
+        <v>0.00275</v>
       </c>
       <c r="M52">
-        <v>0.00423</v>
+        <v>0.00453</v>
       </c>
       <c r="N52">
-        <v>0.00572</v>
+        <v>0.00611</v>
       </c>
       <c r="O52">
         <v>1825125.6</v>
@@ -3577,19 +3580,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3606,28 +3609,28 @@
         <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F53">
-        <v>0.0115</v>
+        <v>0.01</v>
       </c>
       <c r="G53">
-        <v>0.0136375620692084</v>
+        <v>0.0129294713925095</v>
       </c>
       <c r="H53">
         <v>0.056</v>
       </c>
       <c r="I53">
-        <v>0.0354</v>
+        <v>0.03465</v>
       </c>
       <c r="L53">
         <v>0.004</v>
       </c>
       <c r="M53">
-        <v>0.02564</v>
+        <v>0.02394</v>
       </c>
       <c r="N53">
-        <v>0.033</v>
+        <v>0.03278</v>
       </c>
       <c r="O53">
         <v>1825125.6</v>
@@ -3636,19 +3639,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3665,28 +3668,28 @@
         <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F54">
-        <v>0.0115</v>
+        <v>0.01</v>
       </c>
       <c r="G54">
-        <v>0.0136375620692084</v>
+        <v>0.0129294713925095</v>
       </c>
       <c r="H54">
         <v>0.056</v>
       </c>
       <c r="I54">
-        <v>0.0354</v>
+        <v>0.03465</v>
       </c>
       <c r="L54">
         <v>0.004</v>
       </c>
       <c r="M54">
-        <v>0.02564</v>
+        <v>0.02394</v>
       </c>
       <c r="N54">
-        <v>0.033</v>
+        <v>0.03278</v>
       </c>
       <c r="O54">
         <v>1825125.6</v>
@@ -3695,19 +3698,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3721,28 +3724,28 @@
         <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F55">
-        <v>0.01625</v>
+        <v>0.014</v>
       </c>
       <c r="G55">
-        <v>0.0208801478630326</v>
+        <v>0.0194383120392121</v>
       </c>
       <c r="H55">
         <v>0.06900000000000001</v>
       </c>
       <c r="I55">
-        <v>0.0518</v>
+        <v>0.0503</v>
       </c>
       <c r="L55">
-        <v>0.011</v>
+        <v>0.01105</v>
       </c>
       <c r="M55">
-        <v>0.03632</v>
+        <v>0.03335</v>
       </c>
       <c r="N55">
-        <v>0.04372</v>
+        <v>0.04234</v>
       </c>
       <c r="O55">
         <v>1825125.6</v>
@@ -3751,19 +3754,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3777,28 +3780,28 @@
         <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F56">
-        <v>0.01625</v>
+        <v>0.014</v>
       </c>
       <c r="G56">
-        <v>0.0208801478630326</v>
+        <v>0.0194383120392121</v>
       </c>
       <c r="H56">
         <v>0.06900000000000001</v>
       </c>
       <c r="I56">
-        <v>0.0518</v>
+        <v>0.0503</v>
       </c>
       <c r="L56">
-        <v>0.011</v>
+        <v>0.01105</v>
       </c>
       <c r="M56">
-        <v>0.03632</v>
+        <v>0.03335</v>
       </c>
       <c r="N56">
-        <v>0.04372</v>
+        <v>0.04234</v>
       </c>
       <c r="O56">
         <v>1825125.6</v>
@@ -3807,19 +3810,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3836,7 +3839,7 @@
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F57">
         <v>4.075</v>
@@ -3851,7 +3854,7 @@
         <v>16.85</v>
       </c>
       <c r="L57">
-        <v>3.225</v>
+        <v>3.1</v>
       </c>
       <c r="M57">
         <v>9.5</v>
@@ -3866,19 +3869,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3895,19 +3898,19 @@
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F58">
         <v>0.03</v>
       </c>
       <c r="G58">
-        <v>0.0295384615384615</v>
+        <v>0.030280701754386</v>
       </c>
       <c r="H58">
-        <v>0.055</v>
+        <v>0.068</v>
       </c>
       <c r="I58">
-        <v>0.0437</v>
+        <v>0.0453</v>
       </c>
       <c r="L58">
         <v>0.031</v>
@@ -3925,19 +3928,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -3954,19 +3957,19 @@
         <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F59">
         <v>0.03</v>
       </c>
       <c r="G59">
-        <v>0.0295384615384615</v>
+        <v>0.030280701754386</v>
       </c>
       <c r="H59">
-        <v>0.055</v>
+        <v>0.068</v>
       </c>
       <c r="I59">
-        <v>0.0437</v>
+        <v>0.0453</v>
       </c>
       <c r="L59">
         <v>0.031</v>
@@ -3984,19 +3987,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4013,28 +4016,28 @@
         <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F60">
-        <v>0.00274</v>
+        <v>0.00282</v>
       </c>
       <c r="G60">
-        <v>0.0027661803945041</v>
+        <v>0.0028539970350915</v>
       </c>
       <c r="H60">
-        <v>0.0059852671384307</v>
+        <v>0.0064136553684778</v>
       </c>
       <c r="I60">
-        <v>0.00579</v>
+        <v>0.00609</v>
       </c>
       <c r="L60">
-        <v>0.00281</v>
+        <v>0.00298</v>
       </c>
       <c r="M60">
-        <v>0.00434</v>
+        <v>0.00456</v>
       </c>
       <c r="N60">
-        <v>0.00565</v>
+        <v>0.00603</v>
       </c>
       <c r="O60">
         <v>1825125.6</v>
@@ -4043,19 +4046,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4072,28 +4075,28 @@
         <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F61">
-        <v>0.00274</v>
+        <v>0.00282</v>
       </c>
       <c r="G61">
-        <v>0.0027661803945041</v>
+        <v>0.0028539970350915</v>
       </c>
       <c r="H61">
-        <v>0.0059852671384307</v>
+        <v>0.0064136553684778</v>
       </c>
       <c r="I61">
-        <v>0.00579</v>
+        <v>0.00609</v>
       </c>
       <c r="L61">
-        <v>0.00281</v>
+        <v>0.00298</v>
       </c>
       <c r="M61">
-        <v>0.00434</v>
+        <v>0.00456</v>
       </c>
       <c r="N61">
-        <v>0.00565</v>
+        <v>0.00603</v>
       </c>
       <c r="O61">
         <v>1825125.6</v>
@@ -4102,19 +4105,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4131,28 +4134,28 @@
         <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F62">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G62">
-        <v>0.0137416436399872</v>
+        <v>0.0129955885126836</v>
       </c>
       <c r="H62">
         <v>0.056</v>
       </c>
       <c r="I62">
-        <v>0.0387</v>
+        <v>0.03795</v>
       </c>
       <c r="L62">
-        <v>0.0035</v>
+        <v>0.004</v>
       </c>
       <c r="M62">
-        <v>0.02832</v>
+        <v>0.02548</v>
       </c>
       <c r="N62">
-        <v>0.03402</v>
+        <v>0.03294</v>
       </c>
       <c r="O62">
         <v>1825125.6</v>
@@ -4161,19 +4164,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4190,28 +4193,28 @@
         <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F63">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G63">
-        <v>0.0137416436399872</v>
+        <v>0.0129955885126836</v>
       </c>
       <c r="H63">
         <v>0.056</v>
       </c>
       <c r="I63">
-        <v>0.0387</v>
+        <v>0.03795</v>
       </c>
       <c r="L63">
-        <v>0.0035</v>
+        <v>0.004</v>
       </c>
       <c r="M63">
-        <v>0.02832</v>
+        <v>0.02548</v>
       </c>
       <c r="N63">
-        <v>0.03402</v>
+        <v>0.03294</v>
       </c>
       <c r="O63">
         <v>1825125.6</v>
@@ -4220,19 +4223,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4246,28 +4249,28 @@
         <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F64">
-        <v>0.01625</v>
+        <v>0.014</v>
       </c>
       <c r="G64">
-        <v>0.0194269831469677</v>
+        <v>0.0181194721020863</v>
       </c>
       <c r="H64">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
       <c r="I64">
-        <v>0.0429</v>
+        <v>0.0456</v>
       </c>
       <c r="L64">
         <v>0.0105</v>
       </c>
       <c r="M64">
-        <v>0.03345</v>
+        <v>0.02702</v>
       </c>
       <c r="N64">
-        <v>0.04002</v>
+        <v>0.03894</v>
       </c>
       <c r="O64">
         <v>1825125.6</v>
@@ -4276,19 +4279,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4302,28 +4305,28 @@
         <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F65">
-        <v>0.01625</v>
+        <v>0.014</v>
       </c>
       <c r="G65">
-        <v>0.0194269831469677</v>
+        <v>0.0181194721020863</v>
       </c>
       <c r="H65">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
       <c r="I65">
-        <v>0.0429</v>
+        <v>0.0456</v>
       </c>
       <c r="L65">
         <v>0.0105</v>
       </c>
       <c r="M65">
-        <v>0.03345</v>
+        <v>0.02702</v>
       </c>
       <c r="N65">
-        <v>0.04002</v>
+        <v>0.03894</v>
       </c>
       <c r="O65">
         <v>1825125.6</v>
@@ -4332,19 +4335,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R65" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4352,37 +4355,34 @@
         <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F66">
-        <v>3.625</v>
+        <v>0.03</v>
       </c>
       <c r="G66">
-        <v>5.82592592592593</v>
+        <v>0.0411157017226523</v>
       </c>
       <c r="H66">
-        <v>37</v>
+        <v>0.19</v>
       </c>
       <c r="I66">
-        <v>16.8</v>
+        <v>0.1255</v>
       </c>
       <c r="L66">
-        <v>3.225</v>
+        <v>0.025</v>
       </c>
       <c r="M66">
-        <v>9.16</v>
+        <v>0.05</v>
       </c>
       <c r="N66">
-        <v>15.59</v>
+        <v>0.0944</v>
       </c>
       <c r="O66">
         <v>1825125.6</v>
@@ -4391,19 +4391,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R66" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U66" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4411,37 +4411,34 @@
         <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F67">
         <v>0.03</v>
       </c>
       <c r="G67">
-        <v>0.0288653846153846</v>
+        <v>0.0411157017226523</v>
       </c>
       <c r="H67">
-        <v>0.055</v>
+        <v>0.19</v>
       </c>
       <c r="I67">
-        <v>0.041</v>
+        <v>0.1255</v>
       </c>
       <c r="L67">
-        <v>0.0315</v>
+        <v>0.025</v>
       </c>
       <c r="M67">
-        <v>0.03732</v>
+        <v>0.05</v>
       </c>
       <c r="N67">
-        <v>0.04034</v>
+        <v>0.0944</v>
       </c>
       <c r="O67">
         <v>1825125.6</v>
@@ -4450,19 +4447,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R67" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U67" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4470,37 +4467,34 @@
         <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F68">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="G68">
-        <v>0.0288653846153846</v>
+        <v>0.0357575757575758</v>
       </c>
       <c r="H68">
-        <v>0.055</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68">
-        <v>0.041</v>
+        <v>0.05955</v>
       </c>
       <c r="L68">
-        <v>0.0315</v>
+        <v>0.0355</v>
       </c>
       <c r="M68">
-        <v>0.03732</v>
+        <v>0.04778</v>
       </c>
       <c r="N68">
-        <v>0.04034</v>
+        <v>0.0563</v>
       </c>
       <c r="O68">
         <v>1825125.6</v>
@@ -4509,19 +4503,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U68" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4529,37 +4523,34 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69">
-        <v>0.00257</v>
+        <v>0.034</v>
       </c>
       <c r="G69">
-        <v>0.0024603849398505</v>
+        <v>0.0357575757575758</v>
       </c>
       <c r="H69">
-        <v>0.0059852671384307</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I69">
-        <v>0.00566</v>
+        <v>0.05955</v>
       </c>
       <c r="L69">
-        <v>0.00226</v>
+        <v>0.0355</v>
       </c>
       <c r="M69">
-        <v>0.00394</v>
+        <v>0.04778</v>
       </c>
       <c r="N69">
-        <v>0.00535</v>
+        <v>0.0563</v>
       </c>
       <c r="O69">
         <v>1825125.6</v>
@@ -4568,19 +4559,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q69" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U69" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4588,7 +4579,7 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
         <v>35</v>
@@ -4597,28 +4588,28 @@
         <v>46</v>
       </c>
       <c r="E70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F70">
-        <v>0.00257</v>
+        <v>3.625</v>
       </c>
       <c r="G70">
-        <v>0.0024603849398505</v>
+        <v>5.82592592592593</v>
       </c>
       <c r="H70">
-        <v>0.0059852671384307</v>
+        <v>37</v>
       </c>
       <c r="I70">
-        <v>0.00566</v>
+        <v>16.8</v>
       </c>
       <c r="L70">
-        <v>0.00226</v>
+        <v>3.1</v>
       </c>
       <c r="M70">
-        <v>0.00394</v>
+        <v>9.16</v>
       </c>
       <c r="N70">
-        <v>0.00535</v>
+        <v>15.59</v>
       </c>
       <c r="O70">
         <v>1825125.6</v>
@@ -4627,19 +4618,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R70" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4647,37 +4638,37 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
         <v>46</v>
       </c>
       <c r="E71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F71">
-        <v>0.013</v>
+        <v>0.03</v>
       </c>
       <c r="G71">
-        <v>0.0139724128707565</v>
+        <v>0.0296666666666667</v>
       </c>
       <c r="H71">
-        <v>0.056</v>
+        <v>0.068</v>
       </c>
       <c r="I71">
-        <v>0.0369</v>
+        <v>0.04425</v>
       </c>
       <c r="L71">
-        <v>0.0035</v>
+        <v>0.031</v>
       </c>
       <c r="M71">
-        <v>0.02462</v>
+        <v>0.03762</v>
       </c>
       <c r="N71">
-        <v>0.03336</v>
+        <v>0.04094</v>
       </c>
       <c r="O71">
         <v>1825125.6</v>
@@ -4686,19 +4677,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4706,37 +4697,37 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D72" t="s">
         <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F72">
-        <v>0.013</v>
+        <v>0.03</v>
       </c>
       <c r="G72">
-        <v>0.0139724128707565</v>
+        <v>0.0296666666666667</v>
       </c>
       <c r="H72">
-        <v>0.056</v>
+        <v>0.068</v>
       </c>
       <c r="I72">
-        <v>0.0369</v>
+        <v>0.04425</v>
       </c>
       <c r="L72">
-        <v>0.0035</v>
+        <v>0.031</v>
       </c>
       <c r="M72">
-        <v>0.02462</v>
+        <v>0.03762</v>
       </c>
       <c r="N72">
-        <v>0.03336</v>
+        <v>0.04094</v>
       </c>
       <c r="O72">
         <v>1825125.6</v>
@@ -4745,19 +4736,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R72" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4765,34 +4756,37 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>35</v>
       </c>
       <c r="D73" t="s">
         <v>46</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F73">
-        <v>0.01625</v>
+        <v>0.00257</v>
       </c>
       <c r="G73">
-        <v>0.0192058293008138</v>
+        <v>0.0025297842942922</v>
       </c>
       <c r="H73">
-        <v>0.059</v>
+        <v>0.0061859380415182</v>
       </c>
       <c r="I73">
-        <v>0.042</v>
+        <v>0.00602</v>
       </c>
       <c r="L73">
-        <v>0.011</v>
+        <v>0.00266</v>
       </c>
       <c r="M73">
-        <v>0.02799</v>
+        <v>0.00407</v>
       </c>
       <c r="N73">
-        <v>0.04068</v>
+        <v>0.00516</v>
       </c>
       <c r="O73">
         <v>1825125.6</v>
@@ -4801,19 +4795,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S73" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4821,34 +4815,37 @@
         <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C74" t="s">
+        <v>35</v>
       </c>
       <c r="D74" t="s">
         <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F74">
-        <v>0.01625</v>
+        <v>0.00257</v>
       </c>
       <c r="G74">
-        <v>0.0192058293008138</v>
+        <v>0.0025297842942922</v>
       </c>
       <c r="H74">
-        <v>0.059</v>
+        <v>0.0061859380415182</v>
       </c>
       <c r="I74">
-        <v>0.042</v>
+        <v>0.00602</v>
       </c>
       <c r="L74">
-        <v>0.011</v>
+        <v>0.00266</v>
       </c>
       <c r="M74">
-        <v>0.02799</v>
+        <v>0.00407</v>
       </c>
       <c r="N74">
-        <v>0.04068</v>
+        <v>0.00516</v>
       </c>
       <c r="O74">
         <v>1825125.6</v>
@@ -4857,19 +4854,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -4877,34 +4874,37 @@
         <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>35</v>
       </c>
       <c r="D75" t="s">
         <v>46</v>
       </c>
       <c r="E75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F75">
-        <v>0.04</v>
+        <v>0.012</v>
       </c>
       <c r="G75">
-        <v>0.0447038470831317</v>
+        <v>0.0132061148284731</v>
       </c>
       <c r="H75">
-        <v>0.19</v>
+        <v>0.056</v>
       </c>
       <c r="I75">
-        <v>0.115</v>
+        <v>0.03665</v>
       </c>
       <c r="L75">
-        <v>0.03</v>
+        <v>0.005</v>
       </c>
       <c r="M75">
-        <v>0.06</v>
+        <v>0.01981</v>
       </c>
       <c r="N75">
-        <v>0.08599999999999999</v>
+        <v>0.032</v>
       </c>
       <c r="O75">
         <v>1825125.6</v>
@@ -4913,16 +4913,16 @@
         <v>5676951.3</v>
       </c>
       <c r="Q75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U75" t="s">
         <v>56</v>
@@ -4933,34 +4933,37 @@
         <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
       </c>
       <c r="D76" t="s">
         <v>46</v>
       </c>
       <c r="E76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F76">
-        <v>0.04</v>
+        <v>0.012</v>
       </c>
       <c r="G76">
-        <v>0.0447038470831317</v>
+        <v>0.0132061148284731</v>
       </c>
       <c r="H76">
-        <v>0.19</v>
+        <v>0.056</v>
       </c>
       <c r="I76">
-        <v>0.115</v>
+        <v>0.03665</v>
       </c>
       <c r="L76">
-        <v>0.03</v>
+        <v>0.005</v>
       </c>
       <c r="M76">
-        <v>0.06</v>
+        <v>0.01981</v>
       </c>
       <c r="N76">
-        <v>0.08599999999999999</v>
+        <v>0.032</v>
       </c>
       <c r="O76">
         <v>1825125.6</v>
@@ -4969,16 +4972,16 @@
         <v>5676951.3</v>
       </c>
       <c r="Q76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U76" t="s">
         <v>56</v>
@@ -4989,34 +4992,34 @@
         <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
         <v>46</v>
       </c>
       <c r="E77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F77">
-        <v>0.0345</v>
+        <v>0.0155</v>
       </c>
       <c r="G77">
-        <v>0.0352</v>
+        <v>0.0179177177161214</v>
       </c>
       <c r="H77">
-        <v>0.07000000000000001</v>
+        <v>0.057</v>
       </c>
       <c r="I77">
-        <v>0.0585</v>
+        <v>0.04265</v>
       </c>
       <c r="L77">
-        <v>0.0355</v>
+        <v>0.011</v>
       </c>
       <c r="M77">
-        <v>0.0457</v>
+        <v>0.02662</v>
       </c>
       <c r="N77">
-        <v>0.0535</v>
+        <v>0.03988</v>
       </c>
       <c r="O77">
         <v>1825125.6</v>
@@ -5025,19 +5028,19 @@
         <v>5676951.3</v>
       </c>
       <c r="Q77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5045,55 +5048,1028 @@
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D78" t="s">
         <v>46</v>
       </c>
       <c r="E78" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78">
+        <v>0.0155</v>
+      </c>
+      <c r="G78">
+        <v>0.0179177177161214</v>
+      </c>
+      <c r="H78">
+        <v>0.057</v>
+      </c>
+      <c r="I78">
+        <v>0.04265</v>
+      </c>
+      <c r="L78">
+        <v>0.011</v>
+      </c>
+      <c r="M78">
+        <v>0.02662</v>
+      </c>
+      <c r="N78">
+        <v>0.03988</v>
+      </c>
+      <c r="O78">
+        <v>1825125.6</v>
+      </c>
+      <c r="P78">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>49</v>
+      </c>
+      <c r="R78" t="s">
+        <v>50</v>
+      </c>
+      <c r="S78" t="s">
+        <v>51</v>
+      </c>
+      <c r="T78" t="s">
+        <v>52</v>
+      </c>
+      <c r="U78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79">
+        <v>0.03</v>
+      </c>
+      <c r="G79">
+        <v>0.0421139262546379</v>
+      </c>
+      <c r="H79">
+        <v>0.19</v>
+      </c>
+      <c r="I79">
+        <v>0.1075</v>
+      </c>
+      <c r="L79">
+        <v>0.03</v>
+      </c>
+      <c r="M79">
+        <v>0.06</v>
+      </c>
+      <c r="N79">
+        <v>0.079</v>
+      </c>
+      <c r="O79">
+        <v>1825125.6</v>
+      </c>
+      <c r="P79">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>49</v>
+      </c>
+      <c r="R79" t="s">
+        <v>50</v>
+      </c>
+      <c r="S79" t="s">
+        <v>51</v>
+      </c>
+      <c r="T79" t="s">
+        <v>52</v>
+      </c>
+      <c r="U79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80">
+        <v>0.03</v>
+      </c>
+      <c r="G80">
+        <v>0.0421139262546379</v>
+      </c>
+      <c r="H80">
+        <v>0.19</v>
+      </c>
+      <c r="I80">
+        <v>0.1075</v>
+      </c>
+      <c r="L80">
+        <v>0.03</v>
+      </c>
+      <c r="M80">
+        <v>0.06</v>
+      </c>
+      <c r="N80">
+        <v>0.079</v>
+      </c>
+      <c r="O80">
+        <v>1825125.6</v>
+      </c>
+      <c r="P80">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>49</v>
+      </c>
+      <c r="R80" t="s">
+        <v>50</v>
+      </c>
+      <c r="S80" t="s">
+        <v>51</v>
+      </c>
+      <c r="T80" t="s">
+        <v>52</v>
+      </c>
+      <c r="U80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81">
+        <v>0.034</v>
+      </c>
+      <c r="G81">
+        <v>0.0352444444444444</v>
+      </c>
+      <c r="H81">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I81">
+        <v>0.05775</v>
+      </c>
+      <c r="L81">
+        <v>0.0355</v>
+      </c>
+      <c r="M81">
+        <v>0.04585</v>
+      </c>
+      <c r="N81">
+        <v>0.0516</v>
+      </c>
+      <c r="O81">
+        <v>1825125.6</v>
+      </c>
+      <c r="P81">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>49</v>
+      </c>
+      <c r="R81" t="s">
+        <v>50</v>
+      </c>
+      <c r="S81" t="s">
+        <v>51</v>
+      </c>
+      <c r="T81" t="s">
+        <v>52</v>
+      </c>
+      <c r="U81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82">
+        <v>0.034</v>
+      </c>
+      <c r="G82">
+        <v>0.0352444444444444</v>
+      </c>
+      <c r="H82">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I82">
+        <v>0.05775</v>
+      </c>
+      <c r="L82">
+        <v>0.0355</v>
+      </c>
+      <c r="M82">
+        <v>0.04585</v>
+      </c>
+      <c r="N82">
+        <v>0.0516</v>
+      </c>
+      <c r="O82">
+        <v>1825125.6</v>
+      </c>
+      <c r="P82">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>49</v>
+      </c>
+      <c r="R82" t="s">
+        <v>50</v>
+      </c>
+      <c r="S82" t="s">
+        <v>51</v>
+      </c>
+      <c r="T82" t="s">
+        <v>52</v>
+      </c>
+      <c r="U82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" t="s">
         <v>47</v>
       </c>
-      <c r="F78">
+      <c r="E83" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83">
+        <v>3.05</v>
+      </c>
+      <c r="G83">
+        <v>5.2921568627451</v>
+      </c>
+      <c r="H83">
+        <v>37</v>
+      </c>
+      <c r="I83">
+        <v>16.9</v>
+      </c>
+      <c r="L83">
+        <v>2.375</v>
+      </c>
+      <c r="M83">
+        <v>8.914999999999999</v>
+      </c>
+      <c r="N83">
+        <v>14.42</v>
+      </c>
+      <c r="O83">
+        <v>1825125.6</v>
+      </c>
+      <c r="P83">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>49</v>
+      </c>
+      <c r="R83" t="s">
+        <v>50</v>
+      </c>
+      <c r="S83" t="s">
+        <v>51</v>
+      </c>
+      <c r="T83" t="s">
+        <v>52</v>
+      </c>
+      <c r="U83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" t="s">
+        <v>21</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" t="s">
+        <v>36</v>
+      </c>
+      <c r="D84" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84">
+        <v>0.029</v>
+      </c>
+      <c r="G84">
+        <v>0.0291964285714286</v>
+      </c>
+      <c r="H84">
+        <v>0.068</v>
+      </c>
+      <c r="I84">
+        <v>0.0445</v>
+      </c>
+      <c r="L84">
+        <v>0.031</v>
+      </c>
+      <c r="M84">
+        <v>0.03596</v>
+      </c>
+      <c r="N84">
+        <v>0.04002</v>
+      </c>
+      <c r="O84">
+        <v>1825125.6</v>
+      </c>
+      <c r="P84">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>49</v>
+      </c>
+      <c r="R84" t="s">
+        <v>50</v>
+      </c>
+      <c r="S84" t="s">
+        <v>51</v>
+      </c>
+      <c r="T84" t="s">
+        <v>52</v>
+      </c>
+      <c r="U84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85">
+        <v>0.029</v>
+      </c>
+      <c r="G85">
+        <v>0.0291964285714286</v>
+      </c>
+      <c r="H85">
+        <v>0.068</v>
+      </c>
+      <c r="I85">
+        <v>0.0445</v>
+      </c>
+      <c r="L85">
+        <v>0.031</v>
+      </c>
+      <c r="M85">
+        <v>0.03596</v>
+      </c>
+      <c r="N85">
+        <v>0.04002</v>
+      </c>
+      <c r="O85">
+        <v>1825125.6</v>
+      </c>
+      <c r="P85">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>49</v>
+      </c>
+      <c r="R85" t="s">
+        <v>50</v>
+      </c>
+      <c r="S85" t="s">
+        <v>51</v>
+      </c>
+      <c r="T85" t="s">
+        <v>52</v>
+      </c>
+      <c r="U85" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86">
+        <v>0.00206</v>
+      </c>
+      <c r="G86">
+        <v>0.0030572967936318</v>
+      </c>
+      <c r="H86">
+        <v>0.0340150212910557</v>
+      </c>
+      <c r="I86">
+        <v>0.00705</v>
+      </c>
+      <c r="L86">
+        <v>0.00253</v>
+      </c>
+      <c r="M86">
+        <v>0.004</v>
+      </c>
+      <c r="N86">
+        <v>0.00541</v>
+      </c>
+      <c r="O86">
+        <v>1825125.6</v>
+      </c>
+      <c r="P86">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>49</v>
+      </c>
+      <c r="R86" t="s">
+        <v>50</v>
+      </c>
+      <c r="S86" t="s">
+        <v>51</v>
+      </c>
+      <c r="T86" t="s">
+        <v>52</v>
+      </c>
+      <c r="U86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87">
+        <v>0.00206</v>
+      </c>
+      <c r="G87">
+        <v>0.0030572967936318</v>
+      </c>
+      <c r="H87">
+        <v>0.0340150212910557</v>
+      </c>
+      <c r="I87">
+        <v>0.00705</v>
+      </c>
+      <c r="L87">
+        <v>0.00253</v>
+      </c>
+      <c r="M87">
+        <v>0.004</v>
+      </c>
+      <c r="N87">
+        <v>0.00541</v>
+      </c>
+      <c r="O87">
+        <v>1825125.6</v>
+      </c>
+      <c r="P87">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>49</v>
+      </c>
+      <c r="R87" t="s">
+        <v>50</v>
+      </c>
+      <c r="S87" t="s">
+        <v>51</v>
+      </c>
+      <c r="T87" t="s">
+        <v>52</v>
+      </c>
+      <c r="U87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88">
+        <v>0.014</v>
+      </c>
+      <c r="G88">
+        <v>0.0152891607727451</v>
+      </c>
+      <c r="H88">
+        <v>0.065</v>
+      </c>
+      <c r="I88">
+        <v>0.0384</v>
+      </c>
+      <c r="L88">
+        <v>0.008</v>
+      </c>
+      <c r="M88">
+        <v>0.0249</v>
+      </c>
+      <c r="N88">
+        <v>0.0321</v>
+      </c>
+      <c r="O88">
+        <v>1825125.6</v>
+      </c>
+      <c r="P88">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>49</v>
+      </c>
+      <c r="R88" t="s">
+        <v>50</v>
+      </c>
+      <c r="S88" t="s">
+        <v>51</v>
+      </c>
+      <c r="T88" t="s">
+        <v>52</v>
+      </c>
+      <c r="U88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89">
+        <v>0.014</v>
+      </c>
+      <c r="G89">
+        <v>0.0152891607727451</v>
+      </c>
+      <c r="H89">
+        <v>0.065</v>
+      </c>
+      <c r="I89">
+        <v>0.0384</v>
+      </c>
+      <c r="L89">
+        <v>0.008</v>
+      </c>
+      <c r="M89">
+        <v>0.0249</v>
+      </c>
+      <c r="N89">
+        <v>0.0321</v>
+      </c>
+      <c r="O89">
+        <v>1825125.6</v>
+      </c>
+      <c r="P89">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>49</v>
+      </c>
+      <c r="R89" t="s">
+        <v>50</v>
+      </c>
+      <c r="S89" t="s">
+        <v>51</v>
+      </c>
+      <c r="T89" t="s">
+        <v>52</v>
+      </c>
+      <c r="U89" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90">
+        <v>0.0175</v>
+      </c>
+      <c r="G90">
+        <v>0.0208019879109406</v>
+      </c>
+      <c r="H90">
+        <v>0.127</v>
+      </c>
+      <c r="I90">
+        <v>0.0462</v>
+      </c>
+      <c r="L90">
+        <v>0.013</v>
+      </c>
+      <c r="M90">
+        <v>0.02799</v>
+      </c>
+      <c r="N90">
+        <v>0.04004</v>
+      </c>
+      <c r="O90">
+        <v>1825125.6</v>
+      </c>
+      <c r="P90">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>49</v>
+      </c>
+      <c r="R90" t="s">
+        <v>50</v>
+      </c>
+      <c r="S90" t="s">
+        <v>51</v>
+      </c>
+      <c r="T90" t="s">
+        <v>52</v>
+      </c>
+      <c r="U90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91">
+        <v>0.0175</v>
+      </c>
+      <c r="G91">
+        <v>0.0208019879109406</v>
+      </c>
+      <c r="H91">
+        <v>0.127</v>
+      </c>
+      <c r="I91">
+        <v>0.0462</v>
+      </c>
+      <c r="L91">
+        <v>0.013</v>
+      </c>
+      <c r="M91">
+        <v>0.02799</v>
+      </c>
+      <c r="N91">
+        <v>0.04004</v>
+      </c>
+      <c r="O91">
+        <v>1825125.6</v>
+      </c>
+      <c r="P91">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>49</v>
+      </c>
+      <c r="R91" t="s">
+        <v>50</v>
+      </c>
+      <c r="S91" t="s">
+        <v>51</v>
+      </c>
+      <c r="T91" t="s">
+        <v>52</v>
+      </c>
+      <c r="U91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92">
+        <v>0.04</v>
+      </c>
+      <c r="G92">
+        <v>0.0449129764546197</v>
+      </c>
+      <c r="H92">
+        <v>0.22</v>
+      </c>
+      <c r="I92">
+        <v>0.121</v>
+      </c>
+      <c r="L92">
+        <v>0.03</v>
+      </c>
+      <c r="M92">
+        <v>0.06</v>
+      </c>
+      <c r="N92">
+        <v>0.0902</v>
+      </c>
+      <c r="O92">
+        <v>1825125.6</v>
+      </c>
+      <c r="P92">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>49</v>
+      </c>
+      <c r="R92" t="s">
+        <v>50</v>
+      </c>
+      <c r="S92" t="s">
+        <v>51</v>
+      </c>
+      <c r="T92" t="s">
+        <v>52</v>
+      </c>
+      <c r="U92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93">
+        <v>0.04</v>
+      </c>
+      <c r="G93">
+        <v>0.0449129764546197</v>
+      </c>
+      <c r="H93">
+        <v>0.22</v>
+      </c>
+      <c r="I93">
+        <v>0.121</v>
+      </c>
+      <c r="L93">
+        <v>0.03</v>
+      </c>
+      <c r="M93">
+        <v>0.06</v>
+      </c>
+      <c r="N93">
+        <v>0.0902</v>
+      </c>
+      <c r="O93">
+        <v>1825125.6</v>
+      </c>
+      <c r="P93">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>49</v>
+      </c>
+      <c r="R93" t="s">
+        <v>50</v>
+      </c>
+      <c r="S93" t="s">
+        <v>51</v>
+      </c>
+      <c r="T93" t="s">
+        <v>52</v>
+      </c>
+      <c r="U93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
+      <c r="A94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" t="s">
+        <v>47</v>
+      </c>
+      <c r="E94" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94">
+        <v>0.0325</v>
+      </c>
+      <c r="G94">
         <v>0.0345</v>
       </c>
-      <c r="G78">
-        <v>0.0352</v>
-      </c>
-      <c r="H78">
+      <c r="H94">
         <v>0.07000000000000001</v>
       </c>
-      <c r="I78">
-        <v>0.0585</v>
-      </c>
-      <c r="L78">
-        <v>0.0355</v>
-      </c>
-      <c r="M78">
-        <v>0.0457</v>
-      </c>
-      <c r="N78">
-        <v>0.0535</v>
-      </c>
-      <c r="O78">
-        <v>1825125.6</v>
-      </c>
-      <c r="P78">
-        <v>5676951.3</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>48</v>
-      </c>
-      <c r="R78" t="s">
-        <v>49</v>
-      </c>
-      <c r="S78" t="s">
-        <v>50</v>
-      </c>
-      <c r="T78" t="s">
-        <v>51</v>
-      </c>
-      <c r="U78" t="s">
-        <v>56</v>
+      <c r="I94">
+        <v>0.0555</v>
+      </c>
+      <c r="L94">
+        <v>0.035</v>
+      </c>
+      <c r="M94">
+        <v>0.044</v>
+      </c>
+      <c r="N94">
+        <v>0.04808</v>
+      </c>
+      <c r="O94">
+        <v>1825125.6</v>
+      </c>
+      <c r="P94">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>49</v>
+      </c>
+      <c r="R94" t="s">
+        <v>50</v>
+      </c>
+      <c r="S94" t="s">
+        <v>51</v>
+      </c>
+      <c r="T94" t="s">
+        <v>52</v>
+      </c>
+      <c r="U94" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
+      <c r="A95" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>47</v>
+      </c>
+      <c r="E95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95">
+        <v>0.0325</v>
+      </c>
+      <c r="G95">
+        <v>0.0345</v>
+      </c>
+      <c r="H95">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I95">
+        <v>0.0555</v>
+      </c>
+      <c r="L95">
+        <v>0.035</v>
+      </c>
+      <c r="M95">
+        <v>0.044</v>
+      </c>
+      <c r="N95">
+        <v>0.04808</v>
+      </c>
+      <c r="O95">
+        <v>1825125.6</v>
+      </c>
+      <c r="P95">
+        <v>5676951.3</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>49</v>
+      </c>
+      <c r="R95" t="s">
+        <v>50</v>
+      </c>
+      <c r="S95" t="s">
+        <v>51</v>
+      </c>
+      <c r="T95" t="s">
+        <v>52</v>
+      </c>
+      <c r="U95" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
